--- a/results_submaps/cu_mnm/30x30/cu_mnm_30x30_True_2_500.xlsx
+++ b/results_submaps/cu_mnm/30x30/cu_mnm_30x30_True_2_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,218 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>427.516</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.02334066</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22547074.256</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.811091039999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.32474726</v>
+      </c>
+      <c r="I14" t="n">
+        <v>466.49302304</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.917190001924886</v>
+      </c>
+      <c r="K14" t="n">
+        <v>73.4991836962018</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3356641017925939</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9958242.651426483</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.189067863232973</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.21133636173174</v>
+      </c>
+      <c r="P14" t="n">
+        <v>224.6857040280042</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>42.998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>629.062</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.36893166</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27067272.296</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.544071260000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.57071668</v>
+      </c>
+      <c r="I15" t="n">
+        <v>673.4094539999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.076591856579636</v>
+      </c>
+      <c r="K15" t="n">
+        <v>99.21435951649609</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2077273846977117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9260655.074927676</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.435910766544815</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.516669463905607</v>
+      </c>
+      <c r="P15" t="n">
+        <v>316.8585653648009</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="D16" t="n">
+        <v>409.236</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.1201033</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34923009.08</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.528398420000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.562009040000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>177.15548796</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.643136682829724</v>
+      </c>
+      <c r="K16" t="n">
+        <v>72.66057681332904</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3757955990655879</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13297687.19392669</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.895599843601784</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.835131746363534</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90.02768519854139</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33.676</v>
+      </c>
+      <c r="D17" t="n">
+        <v>650.096</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.33198666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>51082170.264</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.079517299999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.388601679999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>285.70748816</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.078232788208701</v>
+      </c>
+      <c r="K17" t="n">
+        <v>113.2815793341215</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2257885204055739</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17000659.66582162</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.146417392504683</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.483317270665682</v>
+      </c>
+      <c r="P17" t="n">
+        <v>138.6567020361459</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
